--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2414"/>
+  <dimension ref="A1:G2434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60801,6 +60801,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2415">
+      <c r="A2415" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2415" t="n">
+        <v>1056851000000</v>
+      </c>
+      <c r="D2415" t="n">
+        <v>1056851000000</v>
+      </c>
+      <c r="E2415" t="n">
+        <v>1056851000000</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>1056851000000</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2416" t="n">
+        <v>1057883000000</v>
+      </c>
+      <c r="D2416" t="n">
+        <v>1057883000000</v>
+      </c>
+      <c r="E2416" t="n">
+        <v>1057883000000</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>1057883000000</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2417" t="n">
+        <v>1056469000000</v>
+      </c>
+      <c r="D2417" t="n">
+        <v>1056469000000</v>
+      </c>
+      <c r="E2417" t="n">
+        <v>1056469000000</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>1056469000000</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2418" t="n">
+        <v>1056221000000</v>
+      </c>
+      <c r="D2418" t="n">
+        <v>1056221000000</v>
+      </c>
+      <c r="E2418" t="n">
+        <v>1056221000000</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>1056221000000</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2419" t="n">
+        <v>1051693000000</v>
+      </c>
+      <c r="D2419" t="n">
+        <v>1051693000000</v>
+      </c>
+      <c r="E2419" t="n">
+        <v>1051693000000</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>1051693000000</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2420" t="n">
+        <v>1051674000000</v>
+      </c>
+      <c r="D2420" t="n">
+        <v>1051674000000</v>
+      </c>
+      <c r="E2420" t="n">
+        <v>1051674000000</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>1051674000000</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2421" t="n">
+        <v>1050640000000</v>
+      </c>
+      <c r="D2421" t="n">
+        <v>1050640000000</v>
+      </c>
+      <c r="E2421" t="n">
+        <v>1050640000000</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>1050640000000</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2422" t="n">
+        <v>1050650000000</v>
+      </c>
+      <c r="D2422" t="n">
+        <v>1050650000000</v>
+      </c>
+      <c r="E2422" t="n">
+        <v>1050650000000</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>1050650000000</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2423" t="n">
+        <v>1031104000000</v>
+      </c>
+      <c r="D2423" t="n">
+        <v>1031104000000</v>
+      </c>
+      <c r="E2423" t="n">
+        <v>1031104000000</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>1031104000000</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2424" t="n">
+        <v>1029525000000</v>
+      </c>
+      <c r="D2424" t="n">
+        <v>1029525000000</v>
+      </c>
+      <c r="E2424" t="n">
+        <v>1029525000000</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>1029525000000</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2425" t="n">
+        <v>1028272000000</v>
+      </c>
+      <c r="D2425" t="n">
+        <v>1028272000000</v>
+      </c>
+      <c r="E2425" t="n">
+        <v>1028272000000</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>1028272000000</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" s="2" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2426" t="n">
+        <v>1028664000000</v>
+      </c>
+      <c r="D2426" t="n">
+        <v>1028664000000</v>
+      </c>
+      <c r="E2426" t="n">
+        <v>1028664000000</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>1028664000000</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" s="2" t="n">
+        <v>45070</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2427" t="n">
+        <v>1026560000000</v>
+      </c>
+      <c r="D2427" t="n">
+        <v>1026560000000</v>
+      </c>
+      <c r="E2427" t="n">
+        <v>1026560000000</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>1026560000000</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2428" t="n">
+        <v>1025419000000</v>
+      </c>
+      <c r="D2428" t="n">
+        <v>1025419000000</v>
+      </c>
+      <c r="E2428" t="n">
+        <v>1025419000000</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>1025419000000</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2429" t="n">
+        <v>1025172000000</v>
+      </c>
+      <c r="D2429" t="n">
+        <v>1025172000000</v>
+      </c>
+      <c r="E2429" t="n">
+        <v>1025172000000</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>1025172000000</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2430" t="n">
+        <v>1024660000000</v>
+      </c>
+      <c r="D2430" t="n">
+        <v>1024660000000</v>
+      </c>
+      <c r="E2430" t="n">
+        <v>1024660000000</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>1024660000000</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2431" t="n">
+        <v>1024532000000</v>
+      </c>
+      <c r="D2431" t="n">
+        <v>1024532000000</v>
+      </c>
+      <c r="E2431" t="n">
+        <v>1024532000000</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>1024532000000</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2432" t="n">
+        <v>1022457000000</v>
+      </c>
+      <c r="D2432" t="n">
+        <v>1022457000000</v>
+      </c>
+      <c r="E2432" t="n">
+        <v>1022457000000</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>1022457000000</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2433" t="n">
+        <v>1020321000000</v>
+      </c>
+      <c r="D2433" t="n">
+        <v>1020321000000</v>
+      </c>
+      <c r="E2433" t="n">
+        <v>1020321000000</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>1020321000000</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2434" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="D2434" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="E2434" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2434"/>
+  <dimension ref="A1:G2436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61301,6 +61301,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2435">
+      <c r="A2435" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2435" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="D2435" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="E2435" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>1020121000000</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2436" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="D2436" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="E2436" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2436"/>
+  <dimension ref="A1:G2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61351,6 +61351,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2437">
+      <c r="A2437" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2437" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="D2437" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="E2437" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>1000683000000</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2438" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="D2438" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="E2438" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2438"/>
+  <dimension ref="A1:G2439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61401,6 +61401,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2439" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="D2439" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="E2439" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2439"/>
+  <dimension ref="A1:G2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61426,6 +61426,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2440" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="D2440" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="E2440" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>1001072000000</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2441" t="n">
+        <v>999864000000</v>
+      </c>
+      <c r="D2441" t="n">
+        <v>999864000000</v>
+      </c>
+      <c r="E2441" t="n">
+        <v>999864000000</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>999864000000</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2442" t="n">
+        <v>999824000000</v>
+      </c>
+      <c r="D2442" t="n">
+        <v>999824000000</v>
+      </c>
+      <c r="E2442" t="n">
+        <v>999824000000</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>999824000000</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2443" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="D2443" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="E2443" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2443"/>
+  <dimension ref="A1:G2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61526,6 +61526,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2444" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="D2444" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="E2444" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>999267000000</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2445" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="D2445" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="E2445" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2445"/>
+  <dimension ref="A1:G2454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61576,6 +61576,231 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2446" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="D2446" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="E2446" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>999292000000</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2447" t="n">
+        <v>999348000000</v>
+      </c>
+      <c r="D2447" t="n">
+        <v>999348000000</v>
+      </c>
+      <c r="E2447" t="n">
+        <v>999348000000</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>999348000000</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2448" t="n">
+        <v>1000008000000</v>
+      </c>
+      <c r="D2448" t="n">
+        <v>1000008000000</v>
+      </c>
+      <c r="E2448" t="n">
+        <v>1000008000000</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>1000008000000</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2449" t="n">
+        <v>999124000000</v>
+      </c>
+      <c r="D2449" t="n">
+        <v>999124000000</v>
+      </c>
+      <c r="E2449" t="n">
+        <v>999124000000</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>999124000000</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2450" t="n">
+        <v>994561000000</v>
+      </c>
+      <c r="D2450" t="n">
+        <v>994561000000</v>
+      </c>
+      <c r="E2450" t="n">
+        <v>994561000000</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>994561000000</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2451" t="n">
+        <v>993839000000</v>
+      </c>
+      <c r="D2451" t="n">
+        <v>993839000000</v>
+      </c>
+      <c r="E2451" t="n">
+        <v>993839000000</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>993839000000</v>
+      </c>
+      <c r="G2451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2452" t="n">
+        <v>991350000000</v>
+      </c>
+      <c r="D2452" t="n">
+        <v>991350000000</v>
+      </c>
+      <c r="E2452" t="n">
+        <v>991350000000</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>991350000000</v>
+      </c>
+      <c r="G2452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2453" t="n">
+        <v>991013000000</v>
+      </c>
+      <c r="D2453" t="n">
+        <v>991013000000</v>
+      </c>
+      <c r="E2453" t="n">
+        <v>991013000000</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>991013000000</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2454" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="D2454" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="E2454" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2454"/>
+  <dimension ref="A1:G2456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61801,6 +61801,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2455">
+      <c r="A2455" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2455" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="D2455" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="E2455" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>992007000000</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
+      <c r="C2456" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="D2456" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="E2456" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2456"/>
+  <dimension ref="A1:G2459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61851,6 +61851,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2457">
+      <c r="A2457" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B2457" t="inlineStr"/>
+      <c r="C2457" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="D2457" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="E2457" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>945866000000</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B2458" t="inlineStr"/>
+      <c r="C2458" t="n">
+        <v>945598000000</v>
+      </c>
+      <c r="D2458" t="n">
+        <v>945598000000</v>
+      </c>
+      <c r="E2458" t="n">
+        <v>945598000000</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>945598000000</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B2459" t="inlineStr"/>
+      <c r="C2459" t="n">
+        <v>945316000000</v>
+      </c>
+      <c r="D2459" t="n">
+        <v>945316000000</v>
+      </c>
+      <c r="E2459" t="n">
+        <v>945316000000</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>945316000000</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2464"/>
+  <dimension ref="A1:G2465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -57060,6 +57060,9 @@
       <c r="A2464" s="2">
         <v>45252</v>
       </c>
+      <c r="B2464" t="s">
+        <v>7</v>
+      </c>
       <c r="C2464">
         <v>945952000000</v>
       </c>
@@ -57073,6 +57076,26 @@
         <v>945952000000</v>
       </c>
       <c r="G2464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:7">
+      <c r="A2465" s="2">
+        <v>45252</v>
+      </c>
+      <c r="C2465">
+        <v>945952000000</v>
+      </c>
+      <c r="D2465">
+        <v>945952000000</v>
+      </c>
+      <c r="E2465">
+        <v>945952000000</v>
+      </c>
+      <c r="F2465">
+        <v>945952000000</v>
+      </c>
+      <c r="G2465">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2465"/>
+  <dimension ref="A1:G2470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -57083,6 +57083,9 @@
       <c r="A2465" s="2">
         <v>45252</v>
       </c>
+      <c r="B2465" t="s">
+        <v>7</v>
+      </c>
       <c r="C2465">
         <v>945952000000</v>
       </c>
@@ -57096,6 +57099,118 @@
         <v>945952000000</v>
       </c>
       <c r="G2465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:7">
+      <c r="A2466" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2466">
+        <v>945952000000</v>
+      </c>
+      <c r="D2466">
+        <v>945952000000</v>
+      </c>
+      <c r="E2466">
+        <v>945952000000</v>
+      </c>
+      <c r="F2466">
+        <v>945952000000</v>
+      </c>
+      <c r="G2466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:7">
+      <c r="A2467" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2467">
+        <v>946938000000</v>
+      </c>
+      <c r="D2467">
+        <v>946938000000</v>
+      </c>
+      <c r="E2467">
+        <v>946938000000</v>
+      </c>
+      <c r="F2467">
+        <v>946938000000</v>
+      </c>
+      <c r="G2467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:7">
+      <c r="A2468" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2468">
+        <v>946938000000</v>
+      </c>
+      <c r="D2468">
+        <v>946938000000</v>
+      </c>
+      <c r="E2468">
+        <v>946938000000</v>
+      </c>
+      <c r="F2468">
+        <v>946938000000</v>
+      </c>
+      <c r="G2468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:7">
+      <c r="A2469" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2469">
+        <v>946938000000</v>
+      </c>
+      <c r="D2469">
+        <v>946938000000</v>
+      </c>
+      <c r="E2469">
+        <v>946938000000</v>
+      </c>
+      <c r="F2469">
+        <v>946938000000</v>
+      </c>
+      <c r="G2469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:7">
+      <c r="A2470" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C2470">
+        <v>946938000000</v>
+      </c>
+      <c r="D2470">
+        <v>946938000000</v>
+      </c>
+      <c r="E2470">
+        <v>946938000000</v>
+      </c>
+      <c r="F2470">
+        <v>946938000000</v>
+      </c>
+      <c r="G2470">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2470"/>
+  <dimension ref="A1:G2480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -57198,6 +57198,9 @@
       <c r="A2470" s="2">
         <v>45259</v>
       </c>
+      <c r="B2470" t="s">
+        <v>7</v>
+      </c>
       <c r="C2470">
         <v>946938000000</v>
       </c>
@@ -57211,6 +57214,233 @@
         <v>946938000000</v>
       </c>
       <c r="G2470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:7">
+      <c r="A2471" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2471">
+        <v>946938000000</v>
+      </c>
+      <c r="D2471">
+        <v>946938000000</v>
+      </c>
+      <c r="E2471">
+        <v>946938000000</v>
+      </c>
+      <c r="F2471">
+        <v>946938000000</v>
+      </c>
+      <c r="G2471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:7">
+      <c r="A2472" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2472">
+        <v>945973000000</v>
+      </c>
+      <c r="D2472">
+        <v>945973000000</v>
+      </c>
+      <c r="E2472">
+        <v>945973000000</v>
+      </c>
+      <c r="F2472">
+        <v>945973000000</v>
+      </c>
+      <c r="G2472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:7">
+      <c r="A2473" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2473">
+        <v>944580000000</v>
+      </c>
+      <c r="D2473">
+        <v>944580000000</v>
+      </c>
+      <c r="E2473">
+        <v>944580000000</v>
+      </c>
+      <c r="F2473">
+        <v>944580000000</v>
+      </c>
+      <c r="G2473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:7">
+      <c r="A2474" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2474">
+        <v>944580000000</v>
+      </c>
+      <c r="D2474">
+        <v>944580000000</v>
+      </c>
+      <c r="E2474">
+        <v>944580000000</v>
+      </c>
+      <c r="F2474">
+        <v>944580000000</v>
+      </c>
+      <c r="G2474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:7">
+      <c r="A2475" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2475">
+        <v>944580000000</v>
+      </c>
+      <c r="D2475">
+        <v>944580000000</v>
+      </c>
+      <c r="E2475">
+        <v>944580000000</v>
+      </c>
+      <c r="F2475">
+        <v>944580000000</v>
+      </c>
+      <c r="G2475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:7">
+      <c r="A2476" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2476">
+        <v>944580000000</v>
+      </c>
+      <c r="D2476">
+        <v>944580000000</v>
+      </c>
+      <c r="E2476">
+        <v>944580000000</v>
+      </c>
+      <c r="F2476">
+        <v>944580000000</v>
+      </c>
+      <c r="G2476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:7">
+      <c r="A2477" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2477">
+        <v>944580000000</v>
+      </c>
+      <c r="D2477">
+        <v>944580000000</v>
+      </c>
+      <c r="E2477">
+        <v>944580000000</v>
+      </c>
+      <c r="F2477">
+        <v>944580000000</v>
+      </c>
+      <c r="G2477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:7">
+      <c r="A2478" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2478">
+        <v>944580000000</v>
+      </c>
+      <c r="D2478">
+        <v>944580000000</v>
+      </c>
+      <c r="E2478">
+        <v>944580000000</v>
+      </c>
+      <c r="F2478">
+        <v>944580000000</v>
+      </c>
+      <c r="G2478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:7">
+      <c r="A2479" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2479">
+        <v>944580000000</v>
+      </c>
+      <c r="D2479">
+        <v>944580000000</v>
+      </c>
+      <c r="E2479">
+        <v>944580000000</v>
+      </c>
+      <c r="F2479">
+        <v>944580000000</v>
+      </c>
+      <c r="G2479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:7">
+      <c r="A2480" s="2">
+        <v>45271</v>
+      </c>
+      <c r="C2480">
+        <v>944580000000</v>
+      </c>
+      <c r="D2480">
+        <v>944580000000</v>
+      </c>
+      <c r="E2480">
+        <v>944580000000</v>
+      </c>
+      <c r="F2480">
+        <v>944580000000</v>
+      </c>
+      <c r="G2480">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/GBCBBS.xlsx
+++ b/GlobalReserves/BalSheets/GBCBBS.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2481"/>
+  <dimension ref="A1:G2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62455,7 +62455,11 @@
       <c r="A2481" s="2" t="n">
         <v>45273</v>
       </c>
-      <c r="B2481" t="inlineStr"/>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>:GBCBBS</t>
+        </is>
+      </c>
       <c r="C2481" t="n">
         <v>944580000000</v>
       </c>
@@ -62469,6 +62473,90 @@
         <v>944580000000</v>
       </c>
       <c r="G2481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B2482" t="inlineStr"/>
+      <c r="C2482" t="n">
+        <v>944580000000</v>
+      </c>
+      <c r="D2482" t="n">
+        <v>944580000000</v>
+      </c>
+      <c r="E2482" t="n">
+        <v>944580000000</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>944580000000</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B2483" t="inlineStr"/>
+      <c r="C2483" t="n">
+        <v>942165000000</v>
+      </c>
+      <c r="D2483" t="n">
+        <v>942165000000</v>
+      </c>
+      <c r="E2483" t="n">
+        <v>942165000000</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>942165000000</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B2484" t="inlineStr"/>
+      <c r="C2484" t="n">
+        <v>941387000000</v>
+      </c>
+      <c r="D2484" t="n">
+        <v>941387000000</v>
+      </c>
+      <c r="E2484" t="n">
+        <v>941387000000</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>941387000000</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B2485" t="inlineStr"/>
+      <c r="C2485" t="n">
+        <v>941032000000</v>
+      </c>
+      <c r="D2485" t="n">
+        <v>941032000000</v>
+      </c>
+      <c r="E2485" t="n">
+        <v>941032000000</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>941032000000</v>
+      </c>
+      <c r="G2485" t="n">
         <v>0</v>
       </c>
     </row>
